--- a/Holfontein Diesel 2026-01-18.xlsx
+++ b/Holfontein Diesel 2026-01-18.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nexgro-my.sharepoint.com/personal/marnus_muller_nexgro_co_za/Documents/Documents/BOT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_736A52A6926C47707162C26BE819F9FCD7CD7066" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C1A6EBB-1938-468C-A7D7-9CF0948551AD}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_736A52A6926C47707162C26BE819F9FCD7CD7066" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F2AFCE3-BB14-40CD-99B2-4068AE67C078}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fuel Log" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2474,7 +2487,7 @@
   <dimension ref="A1:I493"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2569,6 +2582,10 @@
       <c r="H3">
         <v>85.5</v>
       </c>
+      <c r="I3">
+        <f>G2+H3</f>
+        <v>100057.60000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
